--- a/biology/Histoire de la zoologie et de la botanique/Francesca_Gherardi/Francesca_Gherardi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francesca_Gherardi/Francesca_Gherardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesca Gherardi (née le 12 novembre 1955 à Florence et morte le 14 février 2013 (à 57 ans) dans la même ville) est une zoologiste italienne
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille d'un joaillier de Ponte Vecchio et deuxième d'une fratrie de trois enfants, Francesca Gherardi a étudié à l'université de Florence, dont elle est sortie diplômée le 19 juin 1979. Elle a ensuite obtenu un doctorat de recherche en biologie animale le 8 juillet 1987.
 </t>
@@ -542,7 +556,9 @@
           <t>Ses recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesca Gherardi s'est intéressé à l'étude et la connaissance des espèces envahissantes et en particulier aux écrevisses de Louisiane Procambarus clarkii
 </t>
